--- a/biology/Botanique/Muscari/Muscari.xlsx
+++ b/biology/Botanique/Muscari/Muscari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscari est un genre de plantes à fleurs de la famille des Asparagaceae, autrefois classé dans celle des Liliaceae.
 Au stade de plantule, les muscaris ne présentent qu'un seul cotylédon, ce qui les classe parmi les Monocotylédones. Appelés aussi « jacinthes à grappes », les muscaris sont des plantes  bulbeuses d'assez petite taille, parmi lesquelles on distingue une quarantaine d'espèces.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que la plupart des muscaris actuellement cultivés soient inodores, le nom de « Muscari » vient du grec muschos, (musqué), car certaines variétés ont une odeur musquée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la plupart des muscaris actuellement cultivés soient inodores, le nom de « Muscari » vient du grec muschos, (musqué), car certaines variétés ont une odeur musquée.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscari a des feuilles vertes un peu charnues, étroites et allongées qui apparaissent en général après l'inflorescence et qui tendent à sortir en automne[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscari a des feuilles vertes un peu charnues, étroites et allongées qui apparaissent en général après l'inflorescence et qui tendent à sortir en automne.
 Selon les espèces ou cultivars, les muscaris peuvent mesurer de 10 à 60 cm de hauteur, et les fleurs être de couleur bleu pâle à bleu sombre ou encore blanches ou rose.
-L'inflorescence est en épi. La fleur a une forme arrondie ainsi qu'une petite ouverture à l'extrémité[3].
-La plante forme un bulbe et se reproduit principalement par multiplication végétative. Les fleurs supérieures ne servent qu'à attirer les pollinisateurs et leurs graines sont généralement stériles[3].
-Comme il entre en dormance en été, il est particulièrement résistant à la sécheresse[4].
+L'inflorescence est en épi. La fleur a une forme arrondie ainsi qu'une petite ouverture à l'extrémité.
+La plante forme un bulbe et se reproduit principalement par multiplication végétative. Les fleurs supérieures ne servent qu'à attirer les pollinisateurs et leurs graines sont généralement stériles.
+Comme il entre en dormance en été, il est particulièrement résistant à la sécheresse.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont originaires du centre et sud de l'Europe, nord de l'Afrique, ouest, centre et sud-ouest de l'Asie, et se sont naturalisés dans plusieurs pays tempérés[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont originaires du centre et sud de l'Europe, nord de l'Afrique, ouest, centre et sud-ouest de l'Asie, et se sont naturalisés dans plusieurs pays tempérés.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des alcaloïdes pyrrolizidiniques sont présents dans les bulbes de muscari[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des alcaloïdes pyrrolizidiniques sont présents dans les bulbes de muscari.
 </t>
         </is>
       </c>
@@ -641,15 +661,51 @@
           <t>Taxonomie et classifications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon la classification employée, le genre Muscari fait partie de la famille :
 des Liliaceae selon la classification classique,
 des Hyacinthaceae selon la classification phylogénétique APG I,
-des Asparagaceae selon la classification APG II, plus précisément dans les Scilloideae.
-Principales espèces
-Voir plus bas la liste extensive des espèces.
-Le genre Muscari compte environ 40 espèces[3] dont les plus connues sont les suivantes :
+des Asparagaceae selon la classification APG II, plus précisément dans les Scilloideae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscari</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscari</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie et classifications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Voir plus bas la liste extensive des espèces.
+Le genre Muscari compte environ 40 espèces dont les plus connues sont les suivantes :
 Muscari armeniacum Leichtl. ex Baker - Muscari d'Arménie. Fleurs bleu de cobalt. Les feuilles apparaissent à l'automne. Espèce très appréciée dans les jardins, qui se naturalise aisément.
 Note : Le taxon appelé Muscari szovitsianum Baker est considéré actuellement comme une variante locale de M. armeniacum.
 Muscari azureum Fenzl - Plante de 10 à 15 cm de haut, à fleurs campanulées bleu clair, striées à la face externe. Originaire du Caucase et du nord de la Turquie. Il en existe une variété à fleurs blanches.
@@ -666,38 +722,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Muscari</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscari</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Horticulture</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture est facile; le muscari tolère les sols pauvres et requiert peu de soin, mais il préfère un emplacement ensoleillé au printemps[3]. Il est cultivé en tant que plante ornementale, principalement. Son bulbe étant légèrement toxique, ils sont rarement mangés par des animaux[3].
-Le Muscari d'Arménie (Muscari armeniacum) est l'espèce la plus cultivée[3]. Elle se ressème abondamment et est rustique en zone 3[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -719,15 +743,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aspects culturels et historiques</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscari est l'une des quatre plantes retrouvées dans la tombe d'un individu néandertalien, à Shanidar, un site archéologique en Irak[6].
-Alimentation
-En ethnobotanique, l'usage alimentaire du muscari est attesté depuis l'Égypte antique[7], et notamment en Grèce en Espagne et Turquie[8], mais il est particulièrement consommé en Italie[9]. Ce n'est pas une plante ayant été domestiquée ni cultivée ; elle est principalement récoltée à l'état sauvage[7].
-La consommation traditionnelle de bulbes de muscari, particulièrement ceux du muscari à toupet, a eu une valeur culturelle importante pour les immigrants italiens aux États-Unis, bien que les bulbes contiennent des molécules hépatotoxiques : « Les muscaris appartiennent à une famille de Monocotylédones, les Hyacinthacées, où les substances dangereuses ne sont pas rares, comprenant des molécules hépatotoxiques susceptibles d’induire des affections graves par effet cumulatif. Le bulbe de muscari à toupet (lampascioni, lampagione, cipollaccio) a une valeur identitaire à ce point élevée que les immigrés italiens aux États-Unis en importaient par cargos entiers à l’occasion des festivités commémoratives, en importent peut-être encore. Il reste très apprécié en plusieurs provinces de la Péninsule, apprêté à l’huile, à la façon des tomates sèches. Les toxicités masquées, qui induisent à long terme des affections sans rapport manifeste avec les substances ingérées, que les sociétés traditionnelles ne relient pas à leurs pratiques alimentaires, sont fréquentes sous toutes les latitudes[10]. »
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture est facile; le muscari tolère les sols pauvres et requiert peu de soin, mais il préfère un emplacement ensoleillé au printemps. Il est cultivé en tant que plante ornementale, principalement. Son bulbe étant légèrement toxique, ils sont rarement mangés par des animaux.
+Le Muscari d'Arménie (Muscari armeniacum) est l'espèce la plus cultivée. Elle se ressème abondamment et est rustique en zone 3.
 </t>
         </is>
       </c>
@@ -753,12 +777,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Aspects culturels et historiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscari est l'une des quatre plantes retrouvées dans la tombe d'un individu néandertalien, à Shanidar, un site archéologique en Irak.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscari</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscari</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aspects culturels et historiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ethnobotanique, l'usage alimentaire du muscari est attesté depuis l'Égypte antique, et notamment en Grèce en Espagne et Turquie, mais il est particulièrement consommé en Italie. Ce n'est pas une plante ayant été domestiquée ni cultivée ; elle est principalement récoltée à l'état sauvage.
+La consommation traditionnelle de bulbes de muscari, particulièrement ceux du muscari à toupet, a eu une valeur culturelle importante pour les immigrants italiens aux États-Unis, bien que les bulbes contiennent des molécules hépatotoxiques : « Les muscaris appartiennent à une famille de Monocotylédones, les Hyacinthacées, où les substances dangereuses ne sont pas rares, comprenant des molécules hépatotoxiques susceptibles d’induire des affections graves par effet cumulatif. Le bulbe de muscari à toupet (lampascioni, lampagione, cipollaccio) a une valeur identitaire à ce point élevée que les immigrés italiens aux États-Unis en importaient par cargos entiers à l’occasion des festivités commémoratives, en importent peut-être encore. Il reste très apprécié en plusieurs provinces de la Péninsule, apprêté à l’huile, à la façon des tomates sèches. Les toxicités masquées, qui induisent à long terme des affections sans rapport manifeste avec les substances ingérées, que les sociétés traditionnelles ne relient pas à leurs pratiques alimentaires, sont fréquentes sous toutes les latitudes. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscari</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscari</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (3 mars 2019)[2] :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (3 mars 2019) :
 Muscari adilii M. B. Güner &amp; H. Duman
 Muscari albiflorum (Täckh. &amp; Boulos) Hosni
 Muscari alpanicum Schchian
@@ -803,7 +900,7 @@
 Muscari turcicum Uysal, Ertugrul &amp; Dural
 Muscari tuzgoluensis Yild.
 Muscari vuralii Bagci &amp; Dogu
-Selon World Checklist of Selected Plant Families (WCSP)  (3 mars 2019)[11] :
+Selon World Checklist of Selected Plant Families (WCSP)  (3 mars 2019) :
 Muscari adilii M.B.Güner &amp; H.Duman (1999)
 Muscari albiflorum (Täckh. &amp; Boulos) Hosni (1988)
 Muscari alpanicum Schchian (1938)
@@ -854,7 +951,7 @@
 Muscari ufukii E.Kaya &amp; Demirci (2014)
 Muscari vuralii Bagci &amp; Dogu (2009)
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (3 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Muscari aaronsohnii Oppenh. &amp; Beauverd
 Muscari acutifolium Boiss.
 Muscari acutilobum Bertol.
